--- a/data/gwl_lists/GWLs_CMIP5_all_models_fixed_periods.xlsx
+++ b/data/gwl_lists/GWLs_CMIP5_all_models_fixed_periods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbecsi/Desktop/Arbeit/Qgis/data/AAR2/GWLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13332536-E91B-CD4B-8FBC-12ECF410B94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E682D7F9-8F8A-A847-8A83-D2DAB345A923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" activeTab="1" xr2:uid="{1016860F-A044-804B-A1C1-209A73595C7A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>GWL per Period</t>
   </si>
@@ -186,67 +186,106 @@
     <t>bcc-csm1-1_rcp85_r1i1p1_200601-209912</t>
   </si>
   <si>
-    <t>BNU-ESM_rcp26_r1i1p1</t>
-  </si>
-  <si>
-    <t>CNRM-CM5_rcp26_r1i1p1</t>
-  </si>
-  <si>
-    <t>CanESM2_rcp26_r1i1p1</t>
-  </si>
-  <si>
-    <t>IPSL-CM5A-MR_rcp26_r1i1p1</t>
-  </si>
-  <si>
-    <t>NorESM1-M_rcp26_r1i1p1</t>
-  </si>
-  <si>
-    <t>bcc-csm1-1-m_rcp26_r1i1p1</t>
-  </si>
-  <si>
-    <t>BNU-ESM_rcp45_r1i1p1</t>
-  </si>
-  <si>
-    <t>CNRM-CM5_rcp45_r1i1p1</t>
-  </si>
-  <si>
-    <t>CanESM2_rcp45_r1i1p1</t>
-  </si>
-  <si>
-    <t>NorESM1-M_rcp45_r1i1p1</t>
-  </si>
-  <si>
-    <t>bcc-csm1-1-m_rcp45_r1i1p1</t>
-  </si>
-  <si>
-    <t>BNU-ESM_rcp85_r1i1p1</t>
-  </si>
-  <si>
-    <t>CNRM-CM5_rcp85_r1i1p1</t>
-  </si>
-  <si>
-    <t>CanESM2_rcp85_r1i1p1</t>
-  </si>
-  <si>
-    <t>GFDL-CM3_rcp85_r1i1p1</t>
-  </si>
-  <si>
-    <t>NorESM1-ME_rcp85_r1i1p1</t>
-  </si>
-  <si>
-    <t>NorESM1-M_rcp85_r1i1p1</t>
-  </si>
-  <si>
-    <t>bcc-csm1-1-m_rcp85_r1i1p1</t>
+    <t>BNU-ESM_rcp26_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>CNRM-CM5_rcp26_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>CanESM2_rcp26_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp26_r12i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>HadGEM2-ES_rcp26_r1i1p1_200512-209911</t>
+  </si>
+  <si>
+    <t>IPSL-CM5A-MR_rcp26_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp26_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp26_r2i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>NorESM1-M_rcp26_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>bcc-csm1-1-m_rcp26_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>BNU-ESM_rcp45_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>CNRM-CM5_rcp45_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>CanESM2_rcp45_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp45_r12i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp45_r1i1p1_200601-209912</t>
+  </si>
+  <si>
+    <t>HadGEM2-ES_rcp45_r1i1p1_200512-209911</t>
+  </si>
+  <si>
+    <t>IPSL-CM5A-MR_rcp45_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp45_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>NorESM1-M_rcp45_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>bcc-csm1-1-m_rcp45_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>BNU-ESM_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>CNRM-CM5_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>CanESM2_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp85_r12i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>GFDL-CM3_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>HadGEM2-ES_rcp85_r1i1p1_200512-209912</t>
+  </si>
+  <si>
+    <t>IPSL-CM5A-MR_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>NorESM1-ME_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>NorESM1-M_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>bcc-csm1-1-m_rcp85_r1i1p1_200601-210012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -305,7 +344,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -314,6 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -631,7 +670,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,16 +679,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1082,44 +1121,44 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>1.5886423999999999</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>1.82188646</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>1.7785481400000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>1.7007368300000001</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>2.1257855499999998</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>2.6484870300000001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>1.82198865</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>2.52835476</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>4.2636318700000002</v>
       </c>
     </row>
@@ -1130,37 +1169,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35341D5B-AD4F-FA40-8880-E2D5A5A65231}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I18" sqref="I18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1168,13 +1209,13 @@
       <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>2.18840842</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>2.2421605699999998</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>2.1843212400000001</v>
       </c>
     </row>
@@ -1182,13 +1223,13 @@
       <c r="A4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>1.3785034199999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>1.5980669700000001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>1.6746567000000001</v>
       </c>
     </row>
@@ -1196,362 +1237,533 @@
       <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>2.0460375700000002</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>2.28709213</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>2.2961095199999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2.0394381799999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.2019799199999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.3144432699999999</v>
+        <v>52</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.64603254</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.8083393999999999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.7785481400000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.8016377400000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.0162313799999998</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.94603847</v>
+        <v>53</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1.7173942799999999</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.93497871</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.8675844699999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.3404066100000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.47046064</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.4952845800000001</v>
+        <v>41</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2.0394381799999999</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.2019799199999999</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.3144432699999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.3120871000000001</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.40563799</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.4279981799999999</v>
+        <v>54</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.8016377400000001</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.0162313799999998</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.94603847</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.96461014</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.0296279799999999</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.8126285200000001</v>
+        <v>55</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1.7244912800000001</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.7523122900000001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.65489939</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.7340369899999999</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.7512150200000001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.7649362099999999</v>
+        <v>56</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.7676731699999999</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.8500114400000001</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.6954947199999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2.2930545100000002</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.65728615</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3.2500187700000001</v>
+        <v>42</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1.3404066100000001</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.47046064</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.4952845800000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1.4557256700000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.8151828400000001</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.5167674299999998</v>
+        <v>57</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1.3120871000000001</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.40563799</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.4279981799999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2.11537453</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.5016915700000002</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3.0952903200000002</v>
+        <v>58</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1.96461014</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.0296279799999999</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.8126285200000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2.1498618600000001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.6024169000000001</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3.1669687500000001</v>
+        <v>43</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1.7340369899999999</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.7512150200000001</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1.7649362099999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1.3548852600000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.72459852</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.2037445099999999</v>
+        <v>59</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2.2930545100000002</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.65728615</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3.2500187700000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.3996081199999999</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.6706123799999999</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.1545279499999999</v>
+        <v>60</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.4557256700000001</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.8151828400000001</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.5167674299999998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.0002046400000002</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.1418156000000002</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2.4785898</v>
+        <v>61</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2.11537453</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.5016915700000002</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3.0952903200000002</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1.86170166</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.1185425599999999</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2.5341724399999999</v>
+        <v>62</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1.75375941</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.1474492000000001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2.6878287099999998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2.5344582299999998</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3.2365748499999998</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5.2656371200000001</v>
+        <v>63</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1.80149907</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.1215345700000001</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2.6484870300000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.64058254</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2.2042884100000002</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4.0194267699999999</v>
+        <v>64</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1.7087898800000001</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2.2210274299999999</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3.0175271700000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2.32922495</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3.0242456500000001</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5.1631646900000003</v>
+        <v>44</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2.1498618600000001</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.6024169000000001</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3.1669687500000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2.0136545300000002</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.7194244900000002</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4.9356678799999996</v>
+        <v>65</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2.0432827800000002</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.3569650599999998</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3.1038502499999998</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2.3715383399999999</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3.1527152900000002</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5.3603019200000004</v>
+        <v>66</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1.8220405099999999</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.0705924699999998</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.50062827</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1.5443051699999999</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2.1101653900000001</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3.7921103399999998</v>
+        <v>45</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1.3548852600000001</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1.72459852</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.2037445099999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1.5680341</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2.0309144200000002</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3.6292061900000001</v>
+        <v>67</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1.3996081199999999</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1.6706123799999999</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2.1545279499999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2.1886005700000002</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2.5841385200000002</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4.1391656399999999</v>
+        <v>68</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2.0002046400000002</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2.1418156000000002</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2.4785898</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1.86170166</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2.1185425599999999</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2.5341724399999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2.5344582299999998</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3.2365748499999998</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5.2656371200000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1.64058254</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.2042884100000002</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4.0194267699999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2.32922495</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3.0242456500000001</v>
+      </c>
+      <c r="D31" s="5">
+        <v>5.1631646900000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2.0201852699999998</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2.5742407799999998</v>
+      </c>
+      <c r="D32" s="5">
+        <v>-80.258510880000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1.9701140800000001</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.4883218399999998</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4.2636318700000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2.0136545300000002</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2.7194244900000002</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4.9356678799999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1.97960823</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2.7242142899999999</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5.0072021900000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2.3715383399999999</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3.1527152900000002</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5.3603019200000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2.1675149999999999</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2.9632045499999999</v>
+      </c>
+      <c r="D37" s="5">
+        <v>5.10564442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1.9605539700000001</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2.5295756300000001</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4.33972903</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1.5443051699999999</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2.1101653900000001</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3.7921103399999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1.5680341</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2.0309144200000002</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3.6292061900000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2.1886005700000002</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2.5841385200000002</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4.1391656399999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B42" s="5">
         <v>1.95017409</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C42" s="5">
         <v>2.5114119700000002</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D42" s="5">
         <v>4.2017029800000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
